--- a/oyster/original_datasheets/Oyster Field Sheets.xlsx
+++ b/oyster/original_datasheets/Oyster Field Sheets.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\oyster\original_datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533736BB-8669-45F4-91BA-00F6B5928A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853CA176-C8DE-430F-A7A7-30E7FF2DADF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1980" windowWidth="29040" windowHeight="15990" tabRatio="806" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="806" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Water Quality" sheetId="4" r:id="rId1"/>
-    <sheet name="Oyster Reef Area &amp; Height" sheetId="5" r:id="rId2"/>
-    <sheet name="Oyster Reef Composition" sheetId="6" r:id="rId3"/>
-    <sheet name="Oyster Comp_Canopy Taxa" sheetId="11" r:id="rId4"/>
-    <sheet name="Oyster Density &amp; Size Freq" sheetId="7" r:id="rId5"/>
-    <sheet name="Reef Rugosity" sheetId="9" r:id="rId6"/>
+    <sheet name="Oyster Reef Area &amp; Height" sheetId="5" r:id="rId1"/>
+    <sheet name="Oyster Reef Composition" sheetId="6" r:id="rId2"/>
+    <sheet name="Oyster Comp_Canopy Taxa" sheetId="11" r:id="rId3"/>
+    <sheet name="Oyster Density &amp; Size Freq" sheetId="7" r:id="rId4"/>
+    <sheet name="Reef Rugosity" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>Notes:</t>
   </si>
@@ -45,9 +44,6 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>*use previous template</t>
   </si>
   <si>
     <t>Reef ID:</t>
@@ -309,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -324,7 +320,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,35 +632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D38121-4E36-4211-9986-E7454B9E910D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6E49E5-982C-4163-A810-4866A1B8A953}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView view="pageLayout" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,13 +647,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,8 +662,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>8</v>
+      <c r="A11" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -703,124 +674,124 @@
     <row r="14" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>11</v>
+      <c r="A19" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>12</v>
+      <c r="A20" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>13</v>
+      <c r="A21" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>14</v>
+      <c r="A22" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>15</v>
+      <c r="A23" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>16</v>
+      <c r="A24" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>17</v>
+      <c r="A25" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>18</v>
+      <c r="A26" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>19</v>
+      <c r="A27" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>20</v>
+      <c r="A28" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>21</v>
+      <c r="A29" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>22</v>
+      <c r="A30" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>23</v>
+      <c r="A31" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>24</v>
+      <c r="A32" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -834,16 +805,17 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;14Oyster Reef Area and Height</oddHeader>
+    <oddFooter>&amp;Lhttps://doi.org/10.25573/serc.14714328.v1</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0029DFF3-BFD2-4F56-8893-D02BF6F3B088}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B30" sqref="B29:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,16 +826,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -875,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
@@ -883,7 +855,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -936,7 +908,7 @@
     <row r="11" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
@@ -948,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -956,7 +928,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1009,7 +981,7 @@
     <row r="20" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>3</v>
@@ -1021,7 +993,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1029,7 +1001,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1082,7 +1054,7 @@
     <row r="29" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>3</v>
@@ -1094,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>4</v>
@@ -1102,7 +1074,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1155,7 +1127,7 @@
     <row r="38" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>3</v>
@@ -1167,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>4</v>
@@ -1175,7 +1147,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1233,15 +1205,16 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;14Oyster Reef Composition - Primary Substrate</oddHeader>
+    <oddFooter>&amp;Lhttps://doi.org/10.25573/serc.14714328.v1</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3E93B5-8B87-4C10-B512-E6012824CF55}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A16" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1255,21 +1228,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1441,128 +1414,129 @@
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;14Oyster Reef Composition - Canopy Taxa</oddHeader>
+    <oddFooter>&amp;Lhttps://doi.org/10.25573/serc.14714328.v1</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBEFA07-BE30-457F-B34D-AC6CDD3E5AFD}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,54 +1555,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>47</v>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="15"/>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="15"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -1636,13 +1610,13 @@
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -1650,13 +1624,13 @@
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
@@ -1664,13 +1638,13 @@
       <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="6">
         <v>4</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
@@ -1678,13 +1652,13 @@
       <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="6">
         <v>5</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
@@ -1692,13 +1666,13 @@
       <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="6">
         <v>6</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
@@ -1706,13 +1680,13 @@
       <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="6">
         <v>7</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
@@ -1720,13 +1694,13 @@
       <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="6">
         <v>8</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
@@ -1734,13 +1708,13 @@
       <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="6">
         <v>9</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
@@ -1748,13 +1722,13 @@
       <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="6">
         <v>10</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
@@ -1762,13 +1736,13 @@
       <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="6">
         <v>11</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
@@ -1776,13 +1750,13 @@
       <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="6">
         <v>12</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
@@ -1790,13 +1764,13 @@
       <c r="A17" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="6">
         <v>13</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
@@ -1804,13 +1778,13 @@
       <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="6">
         <v>14</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
@@ -1818,13 +1792,13 @@
       <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="6">
         <v>15</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
@@ -1832,13 +1806,13 @@
       <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="6">
         <v>16</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
@@ -1846,13 +1820,13 @@
       <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="6">
         <v>17</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
@@ -1860,13 +1834,13 @@
       <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="6">
         <v>18</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
@@ -1874,13 +1848,13 @@
       <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="6">
         <v>19</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
@@ -1888,13 +1862,13 @@
       <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="6">
         <v>20</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
@@ -1902,13 +1876,13 @@
       <c r="A25" s="6">
         <v>21</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="6">
         <v>21</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
@@ -1916,13 +1890,13 @@
       <c r="A26" s="6">
         <v>22</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="6">
         <v>22</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
@@ -1930,13 +1904,13 @@
       <c r="A27" s="6">
         <v>23</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="6">
         <v>23</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
@@ -1944,13 +1918,13 @@
       <c r="A28" s="6">
         <v>24</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="6">
         <v>24</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
@@ -1958,13 +1932,13 @@
       <c r="A29" s="6">
         <v>25</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="6">
         <v>25</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
@@ -1972,13 +1946,13 @@
       <c r="A30" s="6">
         <v>26</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="6">
         <v>26</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
@@ -1986,13 +1960,13 @@
       <c r="A31" s="6">
         <v>27</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="6">
         <v>27</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
@@ -2000,13 +1974,13 @@
       <c r="A32" s="6">
         <v>28</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="6">
         <v>28</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
@@ -2014,13 +1988,13 @@
       <c r="A33" s="6">
         <v>29</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="6">
         <v>29</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
@@ -2028,13 +2002,13 @@
       <c r="A34" s="6">
         <v>30</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="6">
         <v>30</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
@@ -2042,13 +2016,13 @@
       <c r="A35" s="6">
         <v>31</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="6">
         <v>31</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
@@ -2056,13 +2030,13 @@
       <c r="A36" s="6">
         <v>32</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="6">
         <v>32</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
@@ -2070,13 +2044,13 @@
       <c r="A37" s="6">
         <v>33</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="6">
         <v>33</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
@@ -2084,13 +2058,13 @@
       <c r="A38" s="6">
         <v>34</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="6">
         <v>34</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="16"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
@@ -2098,13 +2072,13 @@
       <c r="A39" s="6">
         <v>35</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="6">
         <v>35</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
@@ -2112,13 +2086,13 @@
       <c r="A40" s="6">
         <v>36</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="6">
         <v>36</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
@@ -2126,13 +2100,13 @@
       <c r="A41" s="6">
         <v>37</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="6">
         <v>37</v>
       </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
@@ -2140,13 +2114,13 @@
       <c r="A42" s="6">
         <v>38</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="6">
         <v>38</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
@@ -2154,13 +2128,13 @@
       <c r="A43" s="6">
         <v>39</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="6">
         <v>39</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
@@ -2168,53 +2142,53 @@
       <c r="A44" s="6">
         <v>40</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="6">
         <v>40</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="15"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
+      <c r="B45" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
@@ -2233,16 +2207,17 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;14Oyster Density and Size Frequency</oddHeader>
+    <oddFooter>&amp;Lhttps://doi.org/10.25573/serc.14714328.v1</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01096F38-B7EF-45CA-A74E-46BECFC3498D}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,136 +2229,136 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>29</v>
+      <c r="A10" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>3</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>4</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>5</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>30</v>
+      <c r="A17" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>1</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>2</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>3</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>4</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>5</v>
       </c>
       <c r="B22" s="1"/>
@@ -2391,9 +2366,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;14Reef Rugosity</oddHeader>
+    <oddFooter>&amp;Lhttps://doi.org/10.25573/serc.14714328.v1</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/oyster/original_datasheets/Oyster Field Sheets.xlsx
+++ b/oyster/original_datasheets/Oyster Field Sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\oyster\original_datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853CA176-C8DE-430F-A7A7-30E7FF2DADF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B8476C-A33A-4992-8EA1-5BD55BBC2ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="806" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="806" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Oyster Reef Area &amp; Height" sheetId="5" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>Trasect/Quadrat:</t>
   </si>
   <si>
-    <t>*Measure the first 50 live oysters (&gt;15mm) and first 25 box oysters and count the remaining live and box oysters.  ID and measure the first 25 non-oyster bivalves and gastropods and count the remaining.  Note presecne of any other sessile fauna (e.g. barnacles, serpulids, sponges, etc.)</t>
-  </si>
-  <si>
     <t>measurement/count/present</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>post-chain length</t>
+  </si>
+  <si>
+    <t>*Measure the first 50 live oysters (&gt;15mm) and first 25 box oysters and count the remaining live and box oysters.  ID and measure the first 25 non-oyster bivalves and gastropods and count the remaining.  Note presence of any other sessile fauna (e.g. barnacles, serpulids, sponges, etc.)</t>
   </si>
 </sst>
 </file>
@@ -814,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0029DFF3-BFD2-4F56-8893-D02BF6F3B088}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="B30" sqref="B29:B30"/>
     </sheetView>
   </sheetViews>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBEFA07-BE30-457F-B34D-AC6CDD3E5AFD}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,19 +1577,19 @@
         <v>27</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2154,7 +2154,7 @@
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -2216,7 +2216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01096F38-B7EF-45CA-A74E-46BECFC3498D}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -2237,10 +2237,10 @@
         <v>24</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/oyster/original_datasheets/Oyster Field Sheets.xlsx
+++ b/oyster/original_datasheets/Oyster Field Sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\oyster\original_datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B8476C-A33A-4992-8EA1-5BD55BBC2ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C07EF5-BD92-4935-ADAF-D9A37FCA29D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="806" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="806" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Oyster Reef Area &amp; Height" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Notes:</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>*Measure the first 50 live oysters (&gt;15mm) and first 25 box oysters and count the remaining live and box oysters.  ID and measure the first 25 non-oyster bivalves and gastropods and count the remaining.  Note presence of any other sessile fauna (e.g. barnacles, serpulids, sponges, etc.)</t>
+  </si>
+  <si>
+    <t>Enter data into the "excavation counts" and "excavation lengths" sheets in the data entry spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -340,6 +343,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -635,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6E49E5-982C-4163-A810-4866A1B8A953}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,11 +680,11 @@
     <row r="14" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -801,10 +807,10 @@
     <mergeCell ref="A16:C16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"-,Bold"&amp;14Oyster Reef Area and Height</oddHeader>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;14Oyster Density and Size Frequency</oddHeader>
     <oddFooter>&amp;Lhttps://doi.org/10.25573/serc.14714328.v1</oddFooter>
   </headerFooter>
 </worksheet>
@@ -814,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0029DFF3-BFD2-4F56-8893-D02BF6F3B088}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B30" sqref="B29:B30"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,10 +834,10 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1204,7 +1210,7 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"-,Bold"&amp;14Oyster Reef Composition - Primary Substrate</oddHeader>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;14Oyster Density and Size Frequency</oddHeader>
     <oddFooter>&amp;Lhttps://doi.org/10.25573/serc.14714328.v1</oddFooter>
   </headerFooter>
 </worksheet>
@@ -1214,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3E93B5-8B87-4C10-B512-E6012824CF55}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,10 +1528,10 @@
       <c r="D48" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"-,Bold"&amp;14Oyster Reef Composition - Canopy Taxa</oddHeader>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;14Oyster Density and Size Frequency</oddHeader>
     <oddFooter>&amp;Lhttps://doi.org/10.25573/serc.14714328.v1</oddFooter>
   </headerFooter>
 </worksheet>
@@ -1535,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBEFA07-BE30-457F-B34D-AC6CDD3E5AFD}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:K47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,22 +1561,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -2153,48 +2159,59 @@
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2216,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01096F38-B7EF-45CA-A74E-46BECFC3498D}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,10 +2382,10 @@
       <c r="C22" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"-,Bold"&amp;14Reef Rugosity</oddHeader>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;14Oyster Density and Size Frequency</oddHeader>
     <oddFooter>&amp;Lhttps://doi.org/10.25573/serc.14714328.v1</oddFooter>
   </headerFooter>
 </worksheet>
